--- a/charles-university/data-structures-1/matrix-transposition/docs/results-assignment-3.xlsx
+++ b/charles-university/data-structures-1/matrix-transposition/docs/results-assignment-3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
   <si>
     <t>n</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>recursive</t>
+  </si>
+  <si>
+    <t>k</t>
   </si>
 </sst>
 </file>
@@ -6513,12 +6516,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{082F3E67-CA5F-4952-8EED-584A3BAB39BD}" name="Table3" displayName="Table3" ref="I2:K87" totalsRowShown="0">
-  <autoFilter ref="I2:K87" xr:uid="{CB45ADA2-F85A-4B03-B1D3-D436CF2887F3}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{082F3E67-CA5F-4952-8EED-584A3BAB39BD}" name="Table3" displayName="Table3" ref="I2:L87" totalsRowShown="0">
+  <autoFilter ref="I2:L87" xr:uid="{CB45ADA2-F85A-4B03-B1D3-D436CF2887F3}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{7D04F273-EFF8-4407-987B-755BED8D5736}" name="n"/>
     <tableColumn id="2" xr3:uid="{8B8CC806-ED6E-4EEF-8830-5B798ED0F8C2}" name="simple"/>
     <tableColumn id="3" xr3:uid="{C599709C-E1D7-48FB-A465-3BFDFBCEACDF}" name="recursive"/>
+    <tableColumn id="4" xr3:uid="{9236D8C8-C4F3-4E75-A065-E7300F361F1A}" name="k"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6821,10 +6825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D11050B-C1E9-478A-8021-42E49E391298}">
-  <dimension ref="A1:K92"/>
+  <dimension ref="A1:L92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L87" sqref="L87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6834,7 +6838,7 @@
     <col min="9" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>16</v>
       </c>
@@ -6846,7 +6850,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6874,8 +6878,11 @@
       <c r="K2" t="s">
         <v>2</v>
       </c>
+      <c r="L2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>64</v>
       </c>
@@ -6903,8 +6910,11 @@
       <c r="K3">
         <v>0</v>
       </c>
+      <c r="L3">
+        <v>54</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>70</v>
       </c>
@@ -6932,8 +6942,11 @@
       <c r="K4">
         <v>0</v>
       </c>
+      <c r="L4">
+        <v>55</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>75</v>
       </c>
@@ -6961,8 +6974,11 @@
       <c r="K5">
         <v>0</v>
       </c>
+      <c r="L5">
+        <v>56</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>81</v>
       </c>
@@ -6990,8 +7006,11 @@
       <c r="K6">
         <v>0</v>
       </c>
+      <c r="L6">
+        <v>57</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>88</v>
       </c>
@@ -7019,8 +7038,11 @@
       <c r="K7">
         <v>0</v>
       </c>
+      <c r="L7">
+        <v>58</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>95</v>
       </c>
@@ -7048,8 +7070,11 @@
       <c r="K8">
         <v>0</v>
       </c>
+      <c r="L8">
+        <v>59</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>102</v>
       </c>
@@ -7077,8 +7102,11 @@
       <c r="K9">
         <v>0</v>
       </c>
+      <c r="L9">
+        <v>60</v>
+      </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>110</v>
       </c>
@@ -7106,8 +7134,11 @@
       <c r="K10">
         <v>0</v>
       </c>
+      <c r="L10">
+        <v>61</v>
+      </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>119</v>
       </c>
@@ -7135,8 +7166,11 @@
       <c r="K11">
         <v>0</v>
       </c>
+      <c r="L11">
+        <v>62</v>
+      </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>128</v>
       </c>
@@ -7164,8 +7198,11 @@
       <c r="K12">
         <v>0</v>
       </c>
+      <c r="L12">
+        <v>63</v>
+      </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>139</v>
       </c>
@@ -7193,8 +7230,11 @@
       <c r="K13">
         <v>0</v>
       </c>
+      <c r="L13">
+        <v>64</v>
+      </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>150</v>
       </c>
@@ -7222,8 +7262,11 @@
       <c r="K14">
         <v>0</v>
       </c>
+      <c r="L14">
+        <v>65</v>
+      </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>162</v>
       </c>
@@ -7251,8 +7294,11 @@
       <c r="K15">
         <v>0</v>
       </c>
+      <c r="L15">
+        <v>66</v>
+      </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>175</v>
       </c>
@@ -7280,8 +7326,11 @@
       <c r="K16">
         <v>0</v>
       </c>
+      <c r="L16">
+        <v>67</v>
+      </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>189</v>
       </c>
@@ -7309,8 +7358,11 @@
       <c r="K17">
         <v>0</v>
       </c>
+      <c r="L17">
+        <v>68</v>
+      </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>204</v>
       </c>
@@ -7338,8 +7390,11 @@
       <c r="K18">
         <v>0</v>
       </c>
+      <c r="L18">
+        <v>69</v>
+      </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>220</v>
       </c>
@@ -7367,8 +7422,11 @@
       <c r="K19">
         <v>0</v>
       </c>
+      <c r="L19">
+        <v>70</v>
+      </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>238</v>
       </c>
@@ -7396,8 +7454,11 @@
       <c r="K20">
         <v>0</v>
       </c>
+      <c r="L20">
+        <v>71</v>
+      </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>256</v>
       </c>
@@ -7425,8 +7486,11 @@
       <c r="K21">
         <v>0</v>
       </c>
+      <c r="L21">
+        <v>72</v>
+      </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>277</v>
       </c>
@@ -7454,8 +7518,11 @@
       <c r="K22">
         <v>0</v>
       </c>
+      <c r="L22">
+        <v>73</v>
+      </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>299</v>
       </c>
@@ -7483,8 +7550,11 @@
       <c r="K23">
         <v>0</v>
       </c>
+      <c r="L23">
+        <v>74</v>
+      </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>323</v>
       </c>
@@ -7512,8 +7582,11 @@
       <c r="K24">
         <v>0</v>
       </c>
+      <c r="L24">
+        <v>75</v>
+      </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>349</v>
       </c>
@@ -7541,8 +7614,11 @@
       <c r="K25">
         <v>0</v>
       </c>
+      <c r="L25">
+        <v>76</v>
+      </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>377</v>
       </c>
@@ -7570,8 +7646,11 @@
       <c r="K26">
         <v>0</v>
       </c>
+      <c r="L26">
+        <v>77</v>
+      </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>407</v>
       </c>
@@ -7599,8 +7678,11 @@
       <c r="K27">
         <v>0</v>
       </c>
+      <c r="L27">
+        <v>78</v>
+      </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>439</v>
       </c>
@@ -7628,8 +7710,11 @@
       <c r="K28">
         <v>0</v>
       </c>
+      <c r="L28">
+        <v>79</v>
+      </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>475</v>
       </c>
@@ -7657,8 +7742,11 @@
       <c r="K29">
         <v>1.5625E-2</v>
       </c>
+      <c r="L29">
+        <v>80</v>
+      </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>512</v>
       </c>
@@ -7686,8 +7774,11 @@
       <c r="K30">
         <v>0</v>
       </c>
+      <c r="L30">
+        <v>81</v>
+      </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>553</v>
       </c>
@@ -7715,8 +7806,11 @@
       <c r="K31">
         <v>0</v>
       </c>
+      <c r="L31">
+        <v>82</v>
+      </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>598</v>
       </c>
@@ -7744,8 +7838,11 @@
       <c r="K32">
         <v>0</v>
       </c>
+      <c r="L32">
+        <v>83</v>
+      </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>646</v>
       </c>
@@ -7773,8 +7870,11 @@
       <c r="K33">
         <v>1.5625E-2</v>
       </c>
+      <c r="L33">
+        <v>84</v>
+      </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>697</v>
       </c>
@@ -7802,8 +7902,11 @@
       <c r="K34">
         <v>0</v>
       </c>
+      <c r="L34">
+        <v>85</v>
+      </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>753</v>
       </c>
@@ -7831,8 +7934,11 @@
       <c r="K35">
         <v>0</v>
       </c>
+      <c r="L35">
+        <v>86</v>
+      </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>813</v>
       </c>
@@ -7860,8 +7966,11 @@
       <c r="K36">
         <v>0</v>
       </c>
+      <c r="L36">
+        <v>87</v>
+      </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>878</v>
       </c>
@@ -7889,8 +7998,11 @@
       <c r="K37">
         <v>1.5625E-2</v>
       </c>
+      <c r="L37">
+        <v>88</v>
+      </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>949</v>
       </c>
@@ -7918,8 +8030,11 @@
       <c r="K38">
         <v>0</v>
       </c>
+      <c r="L38">
+        <v>89</v>
+      </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1024</v>
       </c>
@@ -7947,8 +8062,11 @@
       <c r="K39">
         <v>1.5625E-2</v>
       </c>
+      <c r="L39">
+        <v>90</v>
+      </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1106</v>
       </c>
@@ -7976,8 +8094,11 @@
       <c r="K40">
         <v>1.5625E-2</v>
       </c>
+      <c r="L40">
+        <v>91</v>
+      </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1195</v>
       </c>
@@ -8005,8 +8126,11 @@
       <c r="K41">
         <v>0</v>
       </c>
+      <c r="L41">
+        <v>92</v>
+      </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1291</v>
       </c>
@@ -8034,8 +8158,11 @@
       <c r="K42">
         <v>0</v>
       </c>
+      <c r="L42">
+        <v>93</v>
+      </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1394</v>
       </c>
@@ -8063,8 +8190,11 @@
       <c r="K43">
         <v>1.5625E-2</v>
       </c>
+      <c r="L43">
+        <v>94</v>
+      </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1506</v>
       </c>
@@ -8092,8 +8222,11 @@
       <c r="K44">
         <v>1.5625E-2</v>
       </c>
+      <c r="L44">
+        <v>95</v>
+      </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1626</v>
       </c>
@@ -8121,8 +8254,11 @@
       <c r="K45">
         <v>1.5625E-2</v>
       </c>
+      <c r="L45">
+        <v>96</v>
+      </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1756</v>
       </c>
@@ -8150,8 +8286,11 @@
       <c r="K46">
         <v>1.5625E-2</v>
       </c>
+      <c r="L46">
+        <v>97</v>
+      </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1897</v>
       </c>
@@ -8179,8 +8318,11 @@
       <c r="K47">
         <v>3.125E-2</v>
       </c>
+      <c r="L47">
+        <v>98</v>
+      </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2048</v>
       </c>
@@ -8208,8 +8350,11 @@
       <c r="K48">
         <v>1.5625E-2</v>
       </c>
+      <c r="L48">
+        <v>99</v>
+      </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2212</v>
       </c>
@@ -8237,8 +8382,11 @@
       <c r="K49">
         <v>3.125E-2</v>
       </c>
+      <c r="L49">
+        <v>100</v>
+      </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2390</v>
       </c>
@@ -8266,8 +8414,11 @@
       <c r="K50">
         <v>3.125E-2</v>
       </c>
+      <c r="L50">
+        <v>101</v>
+      </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2581</v>
       </c>
@@ -8295,8 +8446,11 @@
       <c r="K51">
         <v>4.6875E-2</v>
       </c>
+      <c r="L51">
+        <v>102</v>
+      </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2787</v>
       </c>
@@ -8324,8 +8478,11 @@
       <c r="K52">
         <v>6.25E-2</v>
       </c>
+      <c r="L52">
+        <v>103</v>
+      </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3011</v>
       </c>
@@ -8353,8 +8510,11 @@
       <c r="K53">
         <v>6.25E-2</v>
       </c>
+      <c r="L53">
+        <v>104</v>
+      </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3251</v>
       </c>
@@ -8382,8 +8542,11 @@
       <c r="K54">
         <v>7.8125E-2</v>
       </c>
+      <c r="L54">
+        <v>105</v>
+      </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3512</v>
       </c>
@@ -8411,8 +8574,11 @@
       <c r="K55">
         <v>9.375E-2</v>
       </c>
+      <c r="L55">
+        <v>106</v>
+      </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3793</v>
       </c>
@@ -8440,8 +8606,11 @@
       <c r="K56">
         <v>9.375E-2</v>
       </c>
+      <c r="L56">
+        <v>107</v>
+      </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>4096</v>
       </c>
@@ -8469,8 +8638,11 @@
       <c r="K57">
         <v>0.109375</v>
       </c>
+      <c r="L57">
+        <v>108</v>
+      </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>4424</v>
       </c>
@@ -8498,8 +8670,11 @@
       <c r="K58">
         <v>0.125</v>
       </c>
+      <c r="L58">
+        <v>109</v>
+      </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>4779</v>
       </c>
@@ -8527,8 +8702,11 @@
       <c r="K59">
         <v>0.140625</v>
       </c>
+      <c r="L59">
+        <v>110</v>
+      </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>5161</v>
       </c>
@@ -8556,8 +8734,11 @@
       <c r="K60">
         <v>0.203125</v>
       </c>
+      <c r="L60">
+        <v>111</v>
+      </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>5574</v>
       </c>
@@ -8585,8 +8766,11 @@
       <c r="K61">
         <v>0.203125</v>
       </c>
+      <c r="L61">
+        <v>112</v>
+      </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>6021</v>
       </c>
@@ -8614,8 +8798,11 @@
       <c r="K62">
         <v>0.234375</v>
       </c>
+      <c r="L62">
+        <v>113</v>
+      </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>6502</v>
       </c>
@@ -8643,8 +8830,11 @@
       <c r="K63">
         <v>0.3125</v>
       </c>
+      <c r="L63">
+        <v>114</v>
+      </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>7023</v>
       </c>
@@ -8672,8 +8862,11 @@
       <c r="K64">
         <v>0.34375</v>
       </c>
+      <c r="L64">
+        <v>115</v>
+      </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>7585</v>
       </c>
@@ -8701,8 +8894,11 @@
       <c r="K65">
         <v>0.390625</v>
       </c>
+      <c r="L65">
+        <v>116</v>
+      </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>8192</v>
       </c>
@@ -8730,8 +8926,11 @@
       <c r="K66">
         <v>0.453125</v>
       </c>
+      <c r="L66">
+        <v>117</v>
+      </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>8848</v>
       </c>
@@ -8759,8 +8958,11 @@
       <c r="K67">
         <v>0.5</v>
       </c>
+      <c r="L67">
+        <v>118</v>
+      </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>9557</v>
       </c>
@@ -8788,8 +8990,11 @@
       <c r="K68">
         <v>0.609375</v>
       </c>
+      <c r="L68">
+        <v>119</v>
+      </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>10322</v>
       </c>
@@ -8817,8 +9022,11 @@
       <c r="K69">
         <v>0.734375</v>
       </c>
+      <c r="L69">
+        <v>120</v>
+      </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>11148</v>
       </c>
@@ -8846,8 +9054,11 @@
       <c r="K70">
         <v>0.859375</v>
       </c>
+      <c r="L70">
+        <v>121</v>
+      </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>12041</v>
       </c>
@@ -8875,8 +9086,11 @@
       <c r="K71">
         <v>1.015625</v>
       </c>
+      <c r="L71">
+        <v>122</v>
+      </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>13004</v>
       </c>
@@ -8904,8 +9118,11 @@
       <c r="K72">
         <v>1.140625</v>
       </c>
+      <c r="L72">
+        <v>123</v>
+      </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>14046</v>
       </c>
@@ -8933,8 +9150,11 @@
       <c r="K73">
         <v>1.328125</v>
       </c>
+      <c r="L73">
+        <v>124</v>
+      </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>15170</v>
       </c>
@@ -8962,8 +9182,11 @@
       <c r="K74">
         <v>1.609375</v>
       </c>
+      <c r="L74">
+        <v>125</v>
+      </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>16384</v>
       </c>
@@ -8991,8 +9214,11 @@
       <c r="K75">
         <v>1.9375</v>
       </c>
+      <c r="L75">
+        <v>126</v>
+      </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>17696</v>
       </c>
@@ -9020,8 +9246,11 @@
       <c r="K76">
         <v>2</v>
       </c>
+      <c r="L76">
+        <v>127</v>
+      </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>19113</v>
       </c>
@@ -9049,8 +9278,11 @@
       <c r="K77">
         <v>2.5625</v>
       </c>
+      <c r="L77">
+        <v>128</v>
+      </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>20643</v>
       </c>
@@ -9078,8 +9310,11 @@
       <c r="K78">
         <v>2.96875</v>
       </c>
+      <c r="L78">
+        <v>129</v>
+      </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>22296</v>
       </c>
@@ -9107,8 +9342,11 @@
       <c r="K79">
         <v>3.5625</v>
       </c>
+      <c r="L79">
+        <v>130</v>
+      </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>24081</v>
       </c>
@@ -9136,8 +9374,11 @@
       <c r="K80">
         <v>4.171875</v>
       </c>
+      <c r="L80">
+        <v>131</v>
+      </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>26008</v>
       </c>
@@ -9165,8 +9406,11 @@
       <c r="K81">
         <v>4.65625</v>
       </c>
+      <c r="L81">
+        <v>132</v>
+      </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>28091</v>
       </c>
@@ -9194,8 +9438,11 @@
       <c r="K82">
         <v>5.5</v>
       </c>
+      <c r="L82">
+        <v>133</v>
+      </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>30340</v>
       </c>
@@ -9223,8 +9470,11 @@
       <c r="K83">
         <v>6.59375</v>
       </c>
+      <c r="L83">
+        <v>134</v>
+      </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>32768</v>
       </c>
@@ -9252,8 +9502,11 @@
       <c r="K84">
         <v>7.703125</v>
       </c>
+      <c r="L84">
+        <v>135</v>
+      </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>35392</v>
       </c>
@@ -9281,8 +9534,11 @@
       <c r="K85">
         <v>8.5</v>
       </c>
+      <c r="L85">
+        <v>136</v>
+      </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>38225</v>
       </c>
@@ -9310,8 +9566,11 @@
       <c r="K86">
         <v>10.234375</v>
       </c>
+      <c r="L86">
+        <v>137</v>
+      </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>41286</v>
       </c>
@@ -9339,8 +9598,11 @@
       <c r="K87">
         <v>12.078125</v>
       </c>
+      <c r="L87">
+        <v>138</v>
+      </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>44591</v>
       </c>
@@ -9351,7 +9613,7 @@
         <v>11.253048</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>48161</v>
       </c>
@@ -9362,7 +9624,7 @@
         <v>11.967803999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>52016</v>
       </c>
@@ -9373,7 +9635,7 @@
         <v>14.98096</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>56181</v>
       </c>
@@ -9384,7 +9646,7 @@
         <v>17.150044000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>60679</v>
       </c>

--- a/charles-university/data-structures-1/matrix-transposition/docs/results-assignment-3.xlsx
+++ b/charles-university/data-structures-1/matrix-transposition/docs/results-assignment-3.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25950" windowHeight="16125" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25950" windowHeight="16125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hardware Test" sheetId="3" r:id="rId1"/>
     <sheet name="Cache Sim" sheetId="2" r:id="rId2"/>
+    <sheet name="Hardware Test (Windows)" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="12">
   <si>
     <t>n</t>
   </si>
@@ -105,7 +106,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -795,7 +803,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -8243,6 +8251,1576 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Hardware Test</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Hardware Test (Windows)'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>simple</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Hardware Test (Windows)'!$A$2:$A$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="89"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>439</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>553</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>598</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>646</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>697</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>753</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>813</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>878</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>949</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1106</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1195</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1291</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1394</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1506</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1626</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1756</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1897</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2212</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2390</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2581</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2787</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3011</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3251</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3512</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3793</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4424</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4779</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5161</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5574</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6021</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6502</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7023</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7585</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8848</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>9557</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>10322</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>11148</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>12041</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>13004</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>14046</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>15170</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>17696</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>19113</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>20643</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>22296</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>24081</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>26008</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>28091</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>30340</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>35392</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>38225</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>41286</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44591</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>48161</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>52016</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>56181</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Hardware Test (Windows)'!$F$2:$F$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="89"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>102.373</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>74.999400000000009</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>55.187100000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>40.584099999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>29.831499999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>21.901700000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>18.764400000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>16.093</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>13.787600000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>11.827</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>20.2805</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>17.377000000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>37.271100000000004</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>12.779299999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10.946300000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>14.0787</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>16.098700000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>17.240199999999998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>17.745999999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>15.206000000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>17.381600000000002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>57.756100000000004</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>22.358699999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>16.422799999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>18.775300000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>18.107800000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>14.656599999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>16.264700000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>15.841899999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>15.210900000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>48.900400000000005</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>16.767099999999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>18.135399999999997</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>18.4801</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>19.615099999999998</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>21.124499999999998</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>22.547000000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>21.384999999999998</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>30.962999999999997</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>59.142600000000002</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>31.835699999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>37.384900000000002</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>42.609000000000002</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>47.023700000000005</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>52.813499999999998</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>55.071800000000003</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>63.048400000000008</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>66.982299999999995</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>85.771600000000007</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>79.063199999999995</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>72.012799999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>76.929100000000005</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>76.6982</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>82.41510000000001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>84.2346</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>85.475300000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4955-4E56-814E-90208AC6AE30}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Hardware Test (Windows)'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>recursive</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Hardware Test (Windows)'!$A$2:$A$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="89"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>439</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>553</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>598</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>646</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>697</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>753</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>813</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>878</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>949</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1106</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1195</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1291</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1394</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1506</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1626</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1756</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1897</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2212</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2390</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2581</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2787</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3011</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3251</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3512</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3793</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4424</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4779</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5161</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5574</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6021</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6502</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7023</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7585</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8848</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>9557</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>10322</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>11148</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>12041</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>13004</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>14046</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>15170</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>17696</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>19113</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>20643</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>22296</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>24081</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>26008</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>28091</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>30340</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>35392</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>38225</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>41286</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44591</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>48161</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>52016</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>56181</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Hardware Test (Windows)'!$G$2:$G$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="89"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>87.533499999999989</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>21.901700000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>18.764400000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>16.093</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>13.787600000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>11.827</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>20.2805</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8.6884899999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.4542200000000012</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>12.779299999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.4731299999999994</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9.3858199999999989</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>12.0741</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>13.792199999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>11.8307</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>12.6717</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>13.036199999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>13.041700000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>11.1793</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>12.3171</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>10.5611</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>11.065899999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>11.208</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>11.089600000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>10.772499999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>11.408199999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>13.040100000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>11.577299999999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>10.6075</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>11.7334</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>11.5679</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>11.4245</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>11.2735</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>10.771700000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>11.1358</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>13.970700000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>11.576599999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>12.319100000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>11.880699999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>11.9445</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>11.8561</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>11.642700000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>11.366099999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>11.4749</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>13.068</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>11.5015</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>11.5922</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>12.1554</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>11.5204</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>10.468599999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>11.7233</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>11.504999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4955-4E56-814E-90208AC6AE30}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="702192896"/>
+        <c:axId val="702191912"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="702192896"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:max val="56181"/>
+          <c:min val="64"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Matrix Size (n)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="702191912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="702191912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Swap Time (ns)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="702192896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -8444,6 +10022,46 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -11579,6 +13197,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -11817,6 +13951,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9388ECF9-26EC-45D2-BC9A-3903568EEF7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table110" displayName="Table110" ref="A1:G90" totalsRowShown="0">
   <autoFilter ref="A1:G90" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
@@ -11898,6 +14075,26 @@
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="recursive_total"/>
     <tableColumn id="3" xr3:uid="{D44F884F-ADBB-4605-A91F-E6CD559434CB}" name="simple"/>
     <tableColumn id="4" xr3:uid="{E79D0A48-E83E-4945-A602-A9382496701C}" name="recursive"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{60403DF4-65C8-48E5-A1B6-85C34FCF5118}" name="Table1102" displayName="Table1102" ref="A1:G90" totalsRowShown="0">
+  <autoFilter ref="A1:G90" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{7C4F51F0-1BBF-412E-A440-2FC9D7E07612}" name="n"/>
+    <tableColumn id="2" xr3:uid="{CB6AB9A8-22FF-4766-8970-B0058D05A3B2}" name="simple_total"/>
+    <tableColumn id="3" xr3:uid="{5E32F3C7-CB45-45A6-9052-A88E1D328DCD}" name="recursive_total"/>
+    <tableColumn id="4" xr3:uid="{A16B59A2-4B82-490C-AE4C-9479FD3121CC}" name="simple" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{04FBE83C-CE4D-4701-86AF-3F8642D745B0}" name="recursive" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{AB3B6120-7359-4562-BCFB-DE248B8713CB}" name="simple2">
+      <calculatedColumnFormula>Table1102[[#This Row],[simple]]*10^9</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{D6331900-AB29-43CC-AA3F-6E92742EE24F}" name="recursive3">
+      <calculatedColumnFormula>Table1102[[#This Row],[recursive]]*10^9</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12202,8 +14399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q45" sqref="Q45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14474,8 +16671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="L110" sqref="L110"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="U77" sqref="U77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18945,4 +21142,2276 @@
     <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED12F20-2161-4994-967B-32A0BAD8EBAE}">
+  <dimension ref="A1:G90"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="4" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>64</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>70</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>75</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>81</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>88</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>95</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>102</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>110</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>119</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>128</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>139</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>150</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>162</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>175</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>189</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>204</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>220</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>238</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>256</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>277</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>299</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>323</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>349</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>377</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>407</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>439</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>475</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>512</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>553</v>
+      </c>
+      <c r="B30">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1.02373E-7</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>102.373</v>
+      </c>
+      <c r="G30">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>598</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>8.7533499999999994E-8</v>
+      </c>
+      <c r="F31">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>87.533499999999989</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>646</v>
+      </c>
+      <c r="B32">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2">
+        <v>7.4999400000000004E-8</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>74.999400000000009</v>
+      </c>
+      <c r="G32">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>697</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>753</v>
+      </c>
+      <c r="B34">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2">
+        <v>5.5187100000000002E-8</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>55.187100000000001</v>
+      </c>
+      <c r="G34">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>813</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>878</v>
+      </c>
+      <c r="B36">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36" s="2">
+        <v>4.05841E-8</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>40.584099999999999</v>
+      </c>
+      <c r="G36">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>949</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1024</v>
+      </c>
+      <c r="B38">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38" s="2">
+        <v>2.9831499999999998E-8</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>29.831499999999998</v>
+      </c>
+      <c r="G38">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1106</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1195</v>
+      </c>
+      <c r="B40">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="C40">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="D40" s="2">
+        <v>2.19017E-8</v>
+      </c>
+      <c r="E40" s="2">
+        <v>2.19017E-8</v>
+      </c>
+      <c r="F40">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>21.901700000000002</v>
+      </c>
+      <c r="G40">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>21.901700000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1291</v>
+      </c>
+      <c r="B41">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="C41">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1.87644E-8</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1.87644E-8</v>
+      </c>
+      <c r="F41">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>18.764400000000002</v>
+      </c>
+      <c r="G41">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>18.764400000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1394</v>
+      </c>
+      <c r="B42">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="C42">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1.6093000000000001E-8</v>
+      </c>
+      <c r="E42" s="2">
+        <v>1.6093000000000001E-8</v>
+      </c>
+      <c r="F42">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>16.093</v>
+      </c>
+      <c r="G42">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>16.093</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1506</v>
+      </c>
+      <c r="B43">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="C43">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1.3787600000000001E-8</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1.3787600000000001E-8</v>
+      </c>
+      <c r="F43">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>13.787600000000001</v>
+      </c>
+      <c r="G43">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>13.787600000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1626</v>
+      </c>
+      <c r="B44">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="C44">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1.1827000000000001E-8</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1.1827000000000001E-8</v>
+      </c>
+      <c r="F44">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>11.827</v>
+      </c>
+      <c r="G44">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>11.827</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1756</v>
+      </c>
+      <c r="B45">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C45">
+        <v>3.125E-2</v>
+      </c>
+      <c r="D45" s="2">
+        <v>2.0280500000000001E-8</v>
+      </c>
+      <c r="E45" s="2">
+        <v>2.0280500000000001E-8</v>
+      </c>
+      <c r="F45">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>20.2805</v>
+      </c>
+      <c r="G45">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>20.2805</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1897</v>
+      </c>
+      <c r="B46">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C46">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1.7377000000000001E-8</v>
+      </c>
+      <c r="E46" s="2">
+        <v>8.6884900000000005E-9</v>
+      </c>
+      <c r="F46">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>17.377000000000002</v>
+      </c>
+      <c r="G46">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>8.6884899999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2048</v>
+      </c>
+      <c r="B47">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="C47">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="D47" s="2">
+        <v>3.7271100000000002E-8</v>
+      </c>
+      <c r="E47" s="2">
+        <v>7.4542200000000008E-9</v>
+      </c>
+      <c r="F47">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>37.271100000000004</v>
+      </c>
+      <c r="G47">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>7.4542200000000012</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2212</v>
+      </c>
+      <c r="B48">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C48">
+        <v>3.125E-2</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1.2779299999999999E-8</v>
+      </c>
+      <c r="E48" s="2">
+        <v>1.2779299999999999E-8</v>
+      </c>
+      <c r="F48">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>12.779299999999999</v>
+      </c>
+      <c r="G48">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>12.779299999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2390</v>
+      </c>
+      <c r="B49">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C49">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1.0946300000000001E-8</v>
+      </c>
+      <c r="E49" s="2">
+        <v>5.4731299999999997E-9</v>
+      </c>
+      <c r="F49">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>10.946300000000001</v>
+      </c>
+      <c r="G49">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>5.4731299999999994</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2581</v>
+      </c>
+      <c r="B50">
+        <v>4.6875E-2</v>
+      </c>
+      <c r="C50">
+        <v>3.125E-2</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1.40787E-8</v>
+      </c>
+      <c r="E50" s="2">
+        <v>9.3858199999999993E-9</v>
+      </c>
+      <c r="F50">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>14.0787</v>
+      </c>
+      <c r="G50">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>9.3858199999999989</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2787</v>
+      </c>
+      <c r="B51">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C51">
+        <v>4.6875E-2</v>
+      </c>
+      <c r="D51" s="2">
+        <v>1.6098700000000001E-8</v>
+      </c>
+      <c r="E51" s="2">
+        <v>1.20741E-8</v>
+      </c>
+      <c r="F51">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>16.098700000000001</v>
+      </c>
+      <c r="G51">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>12.0741</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>3011</v>
+      </c>
+      <c r="B52">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="C52">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1.7240199999999998E-8</v>
+      </c>
+      <c r="E52" s="2">
+        <v>1.37922E-8</v>
+      </c>
+      <c r="F52">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>17.240199999999998</v>
+      </c>
+      <c r="G52">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>13.792199999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>3251</v>
+      </c>
+      <c r="B53">
+        <v>9.375E-2</v>
+      </c>
+      <c r="C53">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D53" s="2">
+        <v>1.7745999999999999E-8</v>
+      </c>
+      <c r="E53" s="2">
+        <v>1.1830700000000001E-8</v>
+      </c>
+      <c r="F53">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>17.745999999999999</v>
+      </c>
+      <c r="G53">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>11.8307</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>3512</v>
+      </c>
+      <c r="B54">
+        <v>9.375E-2</v>
+      </c>
+      <c r="C54">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1.5206000000000001E-8</v>
+      </c>
+      <c r="E54" s="2">
+        <v>1.26717E-8</v>
+      </c>
+      <c r="F54">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>15.206000000000001</v>
+      </c>
+      <c r="G54">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>12.6717</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>3793</v>
+      </c>
+      <c r="B55">
+        <v>0.125</v>
+      </c>
+      <c r="C55">
+        <v>9.375E-2</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1.7381600000000001E-8</v>
+      </c>
+      <c r="E55" s="2">
+        <v>1.3036199999999999E-8</v>
+      </c>
+      <c r="F55">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>17.381600000000002</v>
+      </c>
+      <c r="G55">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>13.036199999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>4096</v>
+      </c>
+      <c r="B56">
+        <v>0.484375</v>
+      </c>
+      <c r="C56">
+        <v>0.109375</v>
+      </c>
+      <c r="D56" s="2">
+        <v>5.7756100000000003E-8</v>
+      </c>
+      <c r="E56" s="2">
+        <v>1.3041700000000001E-8</v>
+      </c>
+      <c r="F56">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>57.756100000000004</v>
+      </c>
+      <c r="G56">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>13.041700000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>4424</v>
+      </c>
+      <c r="B57">
+        <v>0.21875</v>
+      </c>
+      <c r="C57">
+        <v>0.109375</v>
+      </c>
+      <c r="D57" s="2">
+        <v>2.2358699999999999E-8</v>
+      </c>
+      <c r="E57" s="2">
+        <v>1.11793E-8</v>
+      </c>
+      <c r="F57">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>22.358699999999999</v>
+      </c>
+      <c r="G57">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>11.1793</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>4779</v>
+      </c>
+      <c r="B58">
+        <v>0.1875</v>
+      </c>
+      <c r="C58">
+        <v>0.140625</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1.64228E-8</v>
+      </c>
+      <c r="E58" s="2">
+        <v>1.2317100000000001E-8</v>
+      </c>
+      <c r="F58">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>16.422799999999999</v>
+      </c>
+      <c r="G58">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>12.3171</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>5161</v>
+      </c>
+      <c r="B59">
+        <v>0.25</v>
+      </c>
+      <c r="C59">
+        <v>0.140625</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1.8775300000000001E-8</v>
+      </c>
+      <c r="E59" s="2">
+        <v>1.05611E-8</v>
+      </c>
+      <c r="F59">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>18.775300000000001</v>
+      </c>
+      <c r="G59">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>10.5611</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>5574</v>
+      </c>
+      <c r="B60">
+        <v>0.28125</v>
+      </c>
+      <c r="C60">
+        <v>0.171875</v>
+      </c>
+      <c r="D60" s="2">
+        <v>1.8107800000000002E-8</v>
+      </c>
+      <c r="E60" s="2">
+        <v>1.1065899999999999E-8</v>
+      </c>
+      <c r="F60">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>18.107800000000001</v>
+      </c>
+      <c r="G60">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>11.065899999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>6021</v>
+      </c>
+      <c r="B61">
+        <v>0.265625</v>
+      </c>
+      <c r="C61">
+        <v>0.203125</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1.46566E-8</v>
+      </c>
+      <c r="E61" s="2">
+        <v>1.1208E-8</v>
+      </c>
+      <c r="F61">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>14.656599999999999</v>
+      </c>
+      <c r="G61">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>11.208</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>6502</v>
+      </c>
+      <c r="B62">
+        <v>0.34375</v>
+      </c>
+      <c r="C62">
+        <v>0.234375</v>
+      </c>
+      <c r="D62" s="2">
+        <v>1.6264700000000001E-8</v>
+      </c>
+      <c r="E62" s="2">
+        <v>1.10896E-8</v>
+      </c>
+      <c r="F62">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>16.264700000000001</v>
+      </c>
+      <c r="G62">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>11.089600000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>7023</v>
+      </c>
+      <c r="B63">
+        <v>0.390625</v>
+      </c>
+      <c r="C63">
+        <v>0.265625</v>
+      </c>
+      <c r="D63" s="2">
+        <v>1.5841899999999998E-8</v>
+      </c>
+      <c r="E63" s="2">
+        <v>1.0772499999999999E-8</v>
+      </c>
+      <c r="F63">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>15.841899999999999</v>
+      </c>
+      <c r="G63">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>10.772499999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>7585</v>
+      </c>
+      <c r="B64">
+        <v>0.4375</v>
+      </c>
+      <c r="C64">
+        <v>0.328125</v>
+      </c>
+      <c r="D64" s="2">
+        <v>1.5210900000000001E-8</v>
+      </c>
+      <c r="E64" s="2">
+        <v>1.14082E-8</v>
+      </c>
+      <c r="F64">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>15.210900000000001</v>
+      </c>
+      <c r="G64">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>11.408199999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>8192</v>
+      </c>
+      <c r="B65">
+        <v>1.640625</v>
+      </c>
+      <c r="C65">
+        <v>0.4375</v>
+      </c>
+      <c r="D65" s="2">
+        <v>4.8900400000000003E-8</v>
+      </c>
+      <c r="E65" s="2">
+        <v>1.30401E-8</v>
+      </c>
+      <c r="F65">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>48.900400000000005</v>
+      </c>
+      <c r="G65">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>13.040100000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>8848</v>
+      </c>
+      <c r="B66">
+        <v>0.65625</v>
+      </c>
+      <c r="C66">
+        <v>0.453125</v>
+      </c>
+      <c r="D66" s="2">
+        <v>1.6767099999999999E-8</v>
+      </c>
+      <c r="E66" s="2">
+        <v>1.15773E-8</v>
+      </c>
+      <c r="F66">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>16.767099999999999</v>
+      </c>
+      <c r="G66">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>11.577299999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>9557</v>
+      </c>
+      <c r="B67">
+        <v>0.828125</v>
+      </c>
+      <c r="C67">
+        <v>0.484375</v>
+      </c>
+      <c r="D67" s="2">
+        <v>1.8135399999999998E-8</v>
+      </c>
+      <c r="E67" s="2">
+        <v>1.0607499999999999E-8</v>
+      </c>
+      <c r="F67">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>18.135399999999997</v>
+      </c>
+      <c r="G67">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>10.6075</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>10322</v>
+      </c>
+      <c r="B68">
+        <v>0.984375</v>
+      </c>
+      <c r="C68">
+        <v>0.625</v>
+      </c>
+      <c r="D68" s="2">
+        <v>1.8480099999999999E-8</v>
+      </c>
+      <c r="E68" s="2">
+        <v>1.17334E-8</v>
+      </c>
+      <c r="F68">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>18.4801</v>
+      </c>
+      <c r="G68">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>11.7334</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>11148</v>
+      </c>
+      <c r="B69">
+        <v>1.21875</v>
+      </c>
+      <c r="C69">
+        <v>0.71875</v>
+      </c>
+      <c r="D69" s="2">
+        <v>1.9615099999999999E-8</v>
+      </c>
+      <c r="E69" s="2">
+        <v>1.1567899999999999E-8</v>
+      </c>
+      <c r="F69">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>19.615099999999998</v>
+      </c>
+      <c r="G69">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>11.5679</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>12041</v>
+      </c>
+      <c r="B70">
+        <v>1.53125</v>
+      </c>
+      <c r="C70">
+        <v>0.828125</v>
+      </c>
+      <c r="D70" s="2">
+        <v>2.1124499999999998E-8</v>
+      </c>
+      <c r="E70" s="2">
+        <v>1.1424500000000001E-8</v>
+      </c>
+      <c r="F70">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>21.124499999999998</v>
+      </c>
+      <c r="G70">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>11.4245</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>13004</v>
+      </c>
+      <c r="B71">
+        <v>1.90625</v>
+      </c>
+      <c r="C71">
+        <v>0.953125</v>
+      </c>
+      <c r="D71" s="2">
+        <v>2.2547E-8</v>
+      </c>
+      <c r="E71" s="2">
+        <v>1.12735E-8</v>
+      </c>
+      <c r="F71">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>22.547000000000001</v>
+      </c>
+      <c r="G71">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>11.2735</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>14046</v>
+      </c>
+      <c r="B72">
+        <v>2.109375</v>
+      </c>
+      <c r="C72">
+        <v>1.0625</v>
+      </c>
+      <c r="D72" s="2">
+        <v>2.1384999999999999E-8</v>
+      </c>
+      <c r="E72" s="2">
+        <v>1.0771700000000001E-8</v>
+      </c>
+      <c r="F72">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>21.384999999999998</v>
+      </c>
+      <c r="G72">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>10.771700000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>15170</v>
+      </c>
+      <c r="B73">
+        <v>3.5625</v>
+      </c>
+      <c r="C73">
+        <v>1.28125</v>
+      </c>
+      <c r="D73" s="2">
+        <v>3.0962999999999997E-8</v>
+      </c>
+      <c r="E73" s="2">
+        <v>1.11358E-8</v>
+      </c>
+      <c r="F73">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>30.962999999999997</v>
+      </c>
+      <c r="G73">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>11.1358</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>16384</v>
+      </c>
+      <c r="B74">
+        <v>7.9375</v>
+      </c>
+      <c r="C74">
+        <v>1.875</v>
+      </c>
+      <c r="D74" s="2">
+        <v>5.91426E-8</v>
+      </c>
+      <c r="E74" s="2">
+        <v>1.39707E-8</v>
+      </c>
+      <c r="F74">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>59.142600000000002</v>
+      </c>
+      <c r="G74">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>13.970700000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>17696</v>
+      </c>
+      <c r="B75">
+        <v>4.984375</v>
+      </c>
+      <c r="C75">
+        <v>1.8125</v>
+      </c>
+      <c r="D75" s="2">
+        <v>3.1835699999999998E-8</v>
+      </c>
+      <c r="E75" s="2">
+        <v>1.15766E-8</v>
+      </c>
+      <c r="F75">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>31.835699999999999</v>
+      </c>
+      <c r="G75">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>11.576599999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>19113</v>
+      </c>
+      <c r="B76">
+        <v>6.828125</v>
+      </c>
+      <c r="C76">
+        <v>2.25</v>
+      </c>
+      <c r="D76" s="2">
+        <v>3.7384900000000001E-8</v>
+      </c>
+      <c r="E76" s="2">
+        <v>1.23191E-8</v>
+      </c>
+      <c r="F76">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>37.384900000000002</v>
+      </c>
+      <c r="G76">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>12.319100000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>20643</v>
+      </c>
+      <c r="B77">
+        <v>9.078125</v>
+      </c>
+      <c r="C77">
+        <v>2.53125</v>
+      </c>
+      <c r="D77" s="2">
+        <v>4.2609000000000001E-8</v>
+      </c>
+      <c r="E77" s="2">
+        <v>1.1880699999999999E-8</v>
+      </c>
+      <c r="F77">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>42.609000000000002</v>
+      </c>
+      <c r="G77">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>11.880699999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>22296</v>
+      </c>
+      <c r="B78">
+        <v>11.6875</v>
+      </c>
+      <c r="C78">
+        <v>2.96875</v>
+      </c>
+      <c r="D78" s="2">
+        <v>4.7023700000000002E-8</v>
+      </c>
+      <c r="E78" s="2">
+        <v>1.19445E-8</v>
+      </c>
+      <c r="F78">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>47.023700000000005</v>
+      </c>
+      <c r="G78">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>11.9445</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>24081</v>
+      </c>
+      <c r="B79">
+        <v>15.3125</v>
+      </c>
+      <c r="C79">
+        <v>3.4375</v>
+      </c>
+      <c r="D79" s="2">
+        <v>5.2813499999999998E-8</v>
+      </c>
+      <c r="E79" s="2">
+        <v>1.1856099999999999E-8</v>
+      </c>
+      <c r="F79">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>52.813499999999998</v>
+      </c>
+      <c r="G79">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>11.8561</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>26008</v>
+      </c>
+      <c r="B80">
+        <v>18.625</v>
+      </c>
+      <c r="C80">
+        <v>3.9375</v>
+      </c>
+      <c r="D80" s="2">
+        <v>5.5071800000000001E-8</v>
+      </c>
+      <c r="E80" s="2">
+        <v>1.1642700000000001E-8</v>
+      </c>
+      <c r="F80">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>55.071800000000003</v>
+      </c>
+      <c r="G80">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>11.642700000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>28091</v>
+      </c>
+      <c r="B81">
+        <v>24.875</v>
+      </c>
+      <c r="C81">
+        <v>4.484375</v>
+      </c>
+      <c r="D81" s="2">
+        <v>6.3048400000000005E-8</v>
+      </c>
+      <c r="E81" s="2">
+        <v>1.1366099999999999E-8</v>
+      </c>
+      <c r="F81">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>63.048400000000008</v>
+      </c>
+      <c r="G81">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>11.366099999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>30340</v>
+      </c>
+      <c r="B82">
+        <v>30.828125</v>
+      </c>
+      <c r="C82">
+        <v>5.28125</v>
+      </c>
+      <c r="D82" s="2">
+        <v>6.69823E-8</v>
+      </c>
+      <c r="E82" s="2">
+        <v>1.14749E-8</v>
+      </c>
+      <c r="F82">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>66.982299999999995</v>
+      </c>
+      <c r="G82">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>11.4749</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>32768</v>
+      </c>
+      <c r="B83">
+        <v>46.046875</v>
+      </c>
+      <c r="C83">
+        <v>7.015625</v>
+      </c>
+      <c r="D83" s="2">
+        <v>8.57716E-8</v>
+      </c>
+      <c r="E83" s="2">
+        <v>1.3068E-8</v>
+      </c>
+      <c r="F83">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>85.771600000000007</v>
+      </c>
+      <c r="G83">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>13.068</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>35392</v>
+      </c>
+      <c r="B84">
+        <v>49.515625</v>
+      </c>
+      <c r="C84">
+        <v>7.203125</v>
+      </c>
+      <c r="D84" s="2">
+        <v>7.9063199999999996E-8</v>
+      </c>
+      <c r="E84" s="2">
+        <v>1.15015E-8</v>
+      </c>
+      <c r="F84">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>79.063199999999995</v>
+      </c>
+      <c r="G84">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>11.5015</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>38225</v>
+      </c>
+      <c r="B85">
+        <v>52.609375</v>
+      </c>
+      <c r="C85">
+        <v>8.46875</v>
+      </c>
+      <c r="D85" s="2">
+        <v>7.20128E-8</v>
+      </c>
+      <c r="E85" s="2">
+        <v>1.15922E-8</v>
+      </c>
+      <c r="F85">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>72.012799999999999</v>
+      </c>
+      <c r="G85">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>11.5922</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>41286</v>
+      </c>
+      <c r="B86">
+        <v>65.5625</v>
+      </c>
+      <c r="C86">
+        <v>10.359375</v>
+      </c>
+      <c r="D86" s="2">
+        <v>7.6929100000000006E-8</v>
+      </c>
+      <c r="E86" s="2">
+        <v>1.21554E-8</v>
+      </c>
+      <c r="F86">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>76.929100000000005</v>
+      </c>
+      <c r="G86">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>12.1554</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>44591</v>
+      </c>
+      <c r="B87">
+        <v>76.25</v>
+      </c>
+      <c r="C87">
+        <v>11.453125</v>
+      </c>
+      <c r="D87" s="2">
+        <v>7.6698200000000001E-8</v>
+      </c>
+      <c r="E87" s="2">
+        <v>1.15204E-8</v>
+      </c>
+      <c r="F87">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>76.6982</v>
+      </c>
+      <c r="G87">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>11.5204</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>48161</v>
+      </c>
+      <c r="B88">
+        <v>95.578125</v>
+      </c>
+      <c r="C88">
+        <v>12.140625</v>
+      </c>
+      <c r="D88" s="2">
+        <v>8.2415100000000006E-8</v>
+      </c>
+      <c r="E88" s="2">
+        <v>1.0468599999999999E-8</v>
+      </c>
+      <c r="F88">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>82.41510000000001</v>
+      </c>
+      <c r="G88">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>10.468599999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>52016</v>
+      </c>
+      <c r="B89">
+        <v>113.953125</v>
+      </c>
+      <c r="C89">
+        <v>15.859375</v>
+      </c>
+      <c r="D89" s="2">
+        <v>8.4234600000000004E-8</v>
+      </c>
+      <c r="E89" s="2">
+        <v>1.17233E-8</v>
+      </c>
+      <c r="F89">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>84.2346</v>
+      </c>
+      <c r="G89">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>11.7233</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>56181</v>
+      </c>
+      <c r="B90">
+        <v>134.890625</v>
+      </c>
+      <c r="C90">
+        <v>18.15625</v>
+      </c>
+      <c r="D90" s="2">
+        <v>8.5475300000000006E-8</v>
+      </c>
+      <c r="E90" s="2">
+        <v>1.1504999999999999E-8</v>
+      </c>
+      <c r="F90">
+        <f>Table1102[[#This Row],[simple]]*10^9</f>
+        <v>85.475300000000004</v>
+      </c>
+      <c r="G90">
+        <f>Table1102[[#This Row],[recursive]]*10^9</f>
+        <v>11.504999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>